--- a/hyperonyms_taks2/words.xlsx
+++ b/hyperonyms_taks2/words.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3773B863-7E3C-1F49-BA77-4665B90D633C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5669B623-57FB-A24D-9E83-B32AEBC9331C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>HYPONYM</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>ВЬЮРОК</t>
-  </si>
-  <si>
-    <t>ВЯЗАНКА</t>
   </si>
   <si>
     <t>ГАГАРА</t>
@@ -458,7 +455,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E13" activeCellId="1" sqref="A13:A23 E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -581,11 +578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="24" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>

--- a/hyperonyms_taks2/words.xlsx
+++ b/hyperonyms_taks2/words.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5669B623-57FB-A24D-9E83-B32AEBC9331C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD57761-ED3D-AD4E-9ABD-AE66DCA12EE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="1980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" activeCellId="1" sqref="A13:A23 E13"/>
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
